--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -29,28 +29,28 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG</t>
   </si>
   <si>
-    <t>₹ 20,818</t>
+    <t>₹ 20,835</t>
   </si>
   <si>
-    <t>₹ 133,235</t>
+    <t>₹ 133,346</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
   </si>
   <si>
-    <t>₹ 203,399</t>
+    <t>₹ 203,568</t>
   </si>
   <si>
-    <t>₹ 1,284,055</t>
+    <t>₹ 1,285,122</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
-    <t>₹ 19,673</t>
+    <t>₹ 19,649</t>
   </si>
   <si>
-    <t>₹ 94,854</t>
+    <t>₹ 96,273</t>
   </si>
 </sst>
 </file>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -29,28 +29,28 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG</t>
   </si>
   <si>
-    <t>₹ 20,835</t>
+    <t>₹ 20,796</t>
   </si>
   <si>
-    <t>₹ 133,346</t>
+    <t>₹ 133,093</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
   </si>
   <si>
-    <t>₹ 203,568</t>
+    <t>₹ 204,454</t>
   </si>
   <si>
-    <t>₹ 1,285,122</t>
+    <t>₹ 1,290,721</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
-    <t>₹ 19,649</t>
+    <t>₹ 19,692</t>
   </si>
   <si>
-    <t>₹ 96,273</t>
+    <t>₹ 94,948</t>
   </si>
 </sst>
 </file>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -32,7 +32,7 @@
     <t>₹ 20,796</t>
   </si>
   <si>
-    <t>₹ 133,093</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
@@ -41,16 +41,10 @@
     <t>₹ 204,454</t>
   </si>
   <si>
-    <t>₹ 1,290,721</t>
-  </si>
-  <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
     <t>₹ 19,692</t>
-  </si>
-  <si>
-    <t>₹ 94,948</t>
   </si>
 </sst>
 </file>
@@ -140,7 +134,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -148,13 +142,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -29,22 +29,28 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG</t>
   </si>
   <si>
-    <t>₹ 20,796</t>
+    <t>₹ 22,213</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>₹ 142,163</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
   </si>
   <si>
-    <t>₹ 204,454</t>
+    <t>₹ 206,018</t>
+  </si>
+  <si>
+    <t>₹ 1,300,589</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
-    <t>₹ 19,692</t>
+    <t>₹ 19,719</t>
+  </si>
+  <si>
+    <t>₹ 96,618</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -142,13 +148,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -32,7 +32,7 @@
     <t>₹ 22,213</t>
   </si>
   <si>
-    <t>₹ 142,163</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
@@ -41,16 +41,10 @@
     <t>₹ 206,018</t>
   </si>
   <si>
-    <t>₹ 1,300,589</t>
-  </si>
-  <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
     <t>₹ 19,719</t>
-  </si>
-  <si>
-    <t>₹ 96,618</t>
   </si>
 </sst>
 </file>
@@ -140,7 +134,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -148,13 +142,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -32,7 +32,8 @@
     <t>₹ 22,213</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>₹ 142,163
+1 room × 5 nights incl. taxes &amp; fees</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
@@ -41,10 +42,18 @@
     <t>₹ 206,018</t>
   </si>
   <si>
+    <t>₹ 1,300,589
+1 room × 5 nights incl. taxes &amp; fees</t>
+  </si>
+  <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
     <t>₹ 19,719</t>
+  </si>
+  <si>
+    <t>₹ 96,618
+1 room × 5 nights incl. taxes &amp; fees</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -142,13 +151,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -29,31 +29,22 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG</t>
   </si>
   <si>
-    <t>₹ 22,213</t>
+    <t>₹ 21,887</t>
   </si>
   <si>
-    <t>₹ 142,163
-1 room × 5 nights incl. taxes &amp; fees</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
   </si>
   <si>
-    <t>₹ 206,018</t>
-  </si>
-  <si>
-    <t>₹ 1,300,589
-1 room × 5 nights incl. taxes &amp; fees</t>
+    <t>₹ 204,438</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
-    <t>₹ 19,719</t>
-  </si>
-  <si>
-    <t>₹ 96,618
-1 room × 5 nights incl. taxes &amp; fees</t>
+    <t>₹ 19,760</t>
   </si>
 </sst>
 </file>
@@ -143,7 +134,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -151,13 +142,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotel Details.xlsx
+++ b/Excel Output/Hotel Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -29,22 +29,31 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG</t>
   </si>
   <si>
-    <t>₹ 21,887</t>
+    <t>₹ 19,729</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>₹ 126,269
+1 room × 5 nights incl. taxes &amp; fees</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi</t>
   </si>
   <si>
-    <t>₹ 204,438</t>
+    <t>₹ 203,816</t>
+  </si>
+  <si>
+    <t>₹ 1,286,689
+1 room × 5 nights incl. taxes &amp; fees</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments</t>
   </si>
   <si>
-    <t>₹ 19,760</t>
+    <t>₹ 19,700</t>
+  </si>
+  <si>
+    <t>₹ 96,526
+1 room × 5 nights incl. taxes &amp; fees</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -142,13 +151,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
